--- a/Excel/挂机派遣设计.xlsx
+++ b/Excel/挂机派遣设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -4962,7 +4962,7 @@
             <v>4</v>
           </cell>
           <cell r="H4">
-            <v>5</v>
+            <v>6</v>
           </cell>
         </row>
         <row r="5">
@@ -4973,7 +4973,7 @@
             <v>8</v>
           </cell>
           <cell r="H5">
-            <v>6</v>
+            <v>7</v>
           </cell>
         </row>
         <row r="6">
@@ -4984,7 +4984,7 @@
             <v>12</v>
           </cell>
           <cell r="H6">
-            <v>7</v>
+            <v>8</v>
           </cell>
         </row>
         <row r="7">
@@ -4995,7 +4995,7 @@
             <v>16</v>
           </cell>
           <cell r="H7">
-            <v>8</v>
+            <v>9</v>
           </cell>
         </row>
         <row r="8">
@@ -5006,7 +5006,7 @@
             <v>20</v>
           </cell>
           <cell r="H8">
-            <v>9</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="9">
@@ -5017,7 +5017,7 @@
             <v>24</v>
           </cell>
           <cell r="H9">
-            <v>10</v>
+            <v>12</v>
           </cell>
         </row>
         <row r="10">
@@ -5028,7 +5028,7 @@
             <v>28</v>
           </cell>
           <cell r="H10">
-            <v>12</v>
+            <v>14</v>
           </cell>
         </row>
         <row r="11">
@@ -5039,7 +5039,7 @@
             <v>32</v>
           </cell>
           <cell r="H11">
-            <v>14</v>
+            <v>16</v>
           </cell>
         </row>
         <row r="12">
@@ -5050,7 +5050,7 @@
             <v>36</v>
           </cell>
           <cell r="H12">
-            <v>16</v>
+            <v>18</v>
           </cell>
         </row>
         <row r="13">
@@ -5061,7 +5061,7 @@
             <v>40</v>
           </cell>
           <cell r="H13">
-            <v>18</v>
+            <v>20</v>
           </cell>
         </row>
         <row r="14">
@@ -5072,7 +5072,7 @@
             <v>44</v>
           </cell>
           <cell r="H14">
-            <v>20</v>
+            <v>22</v>
           </cell>
         </row>
         <row r="15">
@@ -5083,7 +5083,7 @@
             <v>48</v>
           </cell>
           <cell r="H15">
-            <v>22</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="16">
@@ -5094,7 +5094,7 @@
             <v>52</v>
           </cell>
           <cell r="H16">
-            <v>25</v>
+            <v>27</v>
           </cell>
         </row>
         <row r="17">
@@ -5105,7 +5105,7 @@
             <v>56</v>
           </cell>
           <cell r="H17">
-            <v>27</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="18">
@@ -5116,7 +5116,7 @@
             <v>60</v>
           </cell>
           <cell r="H18">
-            <v>30</v>
+            <v>32</v>
           </cell>
         </row>
         <row r="19">
@@ -5127,7 +5127,7 @@
             <v>64</v>
           </cell>
           <cell r="H19">
-            <v>32</v>
+            <v>35</v>
           </cell>
         </row>
         <row r="20">
@@ -5138,7 +5138,7 @@
             <v>68</v>
           </cell>
           <cell r="H20">
-            <v>35</v>
+            <v>37</v>
           </cell>
         </row>
         <row r="21">
@@ -5149,7 +5149,7 @@
             <v>72</v>
           </cell>
           <cell r="H21">
-            <v>37</v>
+            <v>40</v>
           </cell>
         </row>
         <row r="22">
@@ -5160,7 +5160,7 @@
             <v>76</v>
           </cell>
           <cell r="H22">
-            <v>40</v>
+            <v>42</v>
           </cell>
         </row>
         <row r="23">
@@ -5171,7 +5171,7 @@
             <v>80</v>
           </cell>
           <cell r="H23">
-            <v>42</v>
+            <v>45</v>
           </cell>
         </row>
         <row r="24">
@@ -5182,7 +5182,7 @@
             <v>84</v>
           </cell>
           <cell r="H24">
-            <v>45</v>
+            <v>47</v>
           </cell>
         </row>
         <row r="25">
@@ -5193,7 +5193,7 @@
             <v>88</v>
           </cell>
           <cell r="H25">
-            <v>47</v>
+            <v>50</v>
           </cell>
         </row>
         <row r="26">
@@ -5204,7 +5204,7 @@
             <v>92</v>
           </cell>
           <cell r="H26">
-            <v>50</v>
+            <v>55</v>
           </cell>
         </row>
         <row r="27">
@@ -5215,7 +5215,7 @@
             <v>96</v>
           </cell>
           <cell r="H27">
-            <v>55</v>
+            <v>60</v>
           </cell>
         </row>
         <row r="28">
@@ -5226,7 +5226,7 @@
             <v>100</v>
           </cell>
           <cell r="H28">
-            <v>60</v>
+            <v>65</v>
           </cell>
         </row>
         <row r="29">
@@ -5237,7 +5237,7 @@
             <v>104</v>
           </cell>
           <cell r="H29">
-            <v>65</v>
+            <v>70</v>
           </cell>
         </row>
         <row r="30">
@@ -5248,7 +5248,7 @@
             <v>108</v>
           </cell>
           <cell r="H30">
-            <v>70</v>
+            <v>75</v>
           </cell>
         </row>
         <row r="31">
@@ -5259,7 +5259,7 @@
             <v>112</v>
           </cell>
           <cell r="H31">
-            <v>75</v>
+            <v>80</v>
           </cell>
         </row>
         <row r="32">
@@ -5270,17 +5270,6 @@
             <v>116</v>
           </cell>
           <cell r="H32">
-            <v>80</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="B33">
-            <v>330</v>
-          </cell>
-          <cell r="G33">
-            <v>120</v>
-          </cell>
-          <cell r="H33">
             <v>80</v>
           </cell>
         </row>
@@ -16505,10 +16494,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R123"/>
+  <dimension ref="A1:Q123"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:E123"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -16525,7 +16514,7 @@
     <col min="15" max="15" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>203</v>
       </c>
@@ -16573,9 +16562,8 @@
       </c>
       <c r="P1" s="10"/>
       <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>185</v>
       </c>
@@ -16622,7 +16610,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>173</v>
       </c>
@@ -16669,7 +16657,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -16716,7 +16704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>2</v>
       </c>
@@ -16763,7 +16751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>3</v>
       </c>
@@ -16810,7 +16798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>4</v>
       </c>
@@ -16857,7 +16845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>5</v>
       </c>
@@ -16874,7 +16862,7 @@
         <v>12</v>
       </c>
       <c r="F8" s="11">
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="G8" s="11">
         <v>0</v>
@@ -16904,7 +16892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>6</v>
       </c>
@@ -16921,7 +16909,7 @@
         <v>13</v>
       </c>
       <c r="F9" s="11">
-        <v>0.16250000000000001</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="G9" s="11">
         <v>0</v>
@@ -16951,7 +16939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>7</v>
       </c>
@@ -16968,7 +16956,7 @@
         <v>14</v>
       </c>
       <c r="F10" s="11">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="G10" s="11">
         <v>0</v>
@@ -16998,7 +16986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>8</v>
       </c>
@@ -17015,7 +17003,7 @@
         <v>15</v>
       </c>
       <c r="F11" s="11">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G11" s="11">
         <v>0</v>
@@ -17045,7 +17033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>9</v>
       </c>
@@ -17062,7 +17050,7 @@
         <v>16</v>
       </c>
       <c r="F12" s="11">
-        <v>0.28125</v>
+        <v>0.5625</v>
       </c>
       <c r="G12" s="11">
         <v>0</v>
@@ -17092,7 +17080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>10</v>
       </c>
@@ -17109,7 +17097,7 @@
         <v>17</v>
       </c>
       <c r="F13" s="11">
-        <v>0.3125</v>
+        <v>0.625</v>
       </c>
       <c r="G13" s="11">
         <v>0</v>
@@ -17139,7 +17127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>11</v>
       </c>
@@ -17156,7 +17144,7 @@
         <v>18</v>
       </c>
       <c r="F14" s="11">
-        <v>0.34375</v>
+        <v>0.6875</v>
       </c>
       <c r="G14" s="11">
         <v>0</v>
@@ -17186,7 +17174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>12</v>
       </c>
@@ -17203,7 +17191,7 @@
         <v>20</v>
       </c>
       <c r="F15" s="11">
-        <v>0.375</v>
+        <v>0.75</v>
       </c>
       <c r="G15" s="11">
         <v>0</v>
@@ -17233,7 +17221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>13</v>
       </c>
@@ -17250,7 +17238,7 @@
         <v>21</v>
       </c>
       <c r="F16" s="11">
-        <v>0.40625</v>
+        <v>0.8125</v>
       </c>
       <c r="G16" s="11">
         <v>0</v>
@@ -17297,7 +17285,7 @@
         <v>22</v>
       </c>
       <c r="F17" s="11">
-        <v>0.4375</v>
+        <v>0.875</v>
       </c>
       <c r="G17" s="11">
         <v>0</v>
@@ -17344,7 +17332,7 @@
         <v>23</v>
       </c>
       <c r="F18" s="11">
-        <v>0.46875</v>
+        <v>0.9375</v>
       </c>
       <c r="G18" s="11">
         <v>0</v>
@@ -17391,7 +17379,7 @@
         <v>25</v>
       </c>
       <c r="F19" s="11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G19" s="11">
         <v>0</v>
@@ -17438,7 +17426,7 @@
         <v>26</v>
       </c>
       <c r="F20" s="11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G20" s="11">
         <v>1.2500000000000001E-2</v>
@@ -17485,7 +17473,7 @@
         <v>27</v>
       </c>
       <c r="F21" s="11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G21" s="11">
         <v>2.5000000000000001E-2</v>
@@ -17532,7 +17520,7 @@
         <v>28</v>
       </c>
       <c r="F22" s="11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G22" s="11">
         <v>3.7500000000000006E-2</v>
@@ -17579,7 +17567,7 @@
         <v>30</v>
       </c>
       <c r="F23" s="11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G23" s="11">
         <v>0.05</v>
@@ -17626,7 +17614,7 @@
         <v>31</v>
       </c>
       <c r="F24" s="11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G24" s="11">
         <v>5.9375000000000004E-2</v>
@@ -17673,7 +17661,7 @@
         <v>32</v>
       </c>
       <c r="F25" s="11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G25" s="11">
         <v>6.8750000000000006E-2</v>
@@ -17720,7 +17708,7 @@
         <v>33</v>
       </c>
       <c r="F26" s="11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G26" s="11">
         <v>7.8124999999999986E-2</v>
@@ -17767,7 +17755,7 @@
         <v>35</v>
       </c>
       <c r="F27" s="11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G27" s="11">
         <v>8.7499999999999994E-2</v>
@@ -17814,7 +17802,7 @@
         <v>36</v>
       </c>
       <c r="F28" s="11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G28" s="11">
         <v>9.6874999999999989E-2</v>
@@ -17861,7 +17849,7 @@
         <v>37</v>
       </c>
       <c r="F29" s="11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G29" s="11">
         <v>0.10625</v>
@@ -17908,7 +17896,7 @@
         <v>38</v>
       </c>
       <c r="F30" s="11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G30" s="11">
         <v>0.11562500000000001</v>
@@ -17955,7 +17943,7 @@
         <v>40</v>
       </c>
       <c r="F31" s="11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G31" s="11">
         <v>0.125</v>
@@ -18002,7 +17990,7 @@
         <v>41</v>
       </c>
       <c r="F32" s="11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G32" s="11">
         <v>0.13437499999999999</v>
@@ -18049,7 +18037,7 @@
         <v>42</v>
       </c>
       <c r="F33" s="11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G33" s="11">
         <v>0.14374999999999999</v>
@@ -18096,7 +18084,7 @@
         <v>43</v>
       </c>
       <c r="F34" s="11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G34" s="11">
         <v>0.15312500000000001</v>
@@ -18143,7 +18131,7 @@
         <v>45</v>
       </c>
       <c r="F35" s="11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G35" s="11">
         <v>0.16250000000000001</v>
@@ -18190,7 +18178,7 @@
         <v>46</v>
       </c>
       <c r="F36" s="11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G36" s="11">
         <v>0.171875</v>
@@ -18237,7 +18225,7 @@
         <v>47</v>
       </c>
       <c r="F37" s="11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G37" s="11">
         <v>0.18125000000000002</v>
@@ -18284,7 +18272,7 @@
         <v>48</v>
       </c>
       <c r="F38" s="11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G38" s="11">
         <v>0.19062500000000002</v>
@@ -18331,7 +18319,7 @@
         <v>50</v>
       </c>
       <c r="F39" s="11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G39" s="11">
         <v>0.2</v>
@@ -18378,7 +18366,7 @@
         <v>51</v>
       </c>
       <c r="F40" s="11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G40" s="11">
         <v>0.21250000000000002</v>
@@ -18425,7 +18413,7 @@
         <v>52</v>
       </c>
       <c r="F41" s="11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G41" s="11">
         <v>0.22500000000000001</v>
@@ -18472,7 +18460,7 @@
         <v>53</v>
       </c>
       <c r="F42" s="11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G42" s="11">
         <v>0.23749999999999999</v>
@@ -18519,7 +18507,7 @@
         <v>55</v>
       </c>
       <c r="F43" s="11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G43" s="11">
         <v>0.25</v>
@@ -18566,7 +18554,7 @@
         <v>56</v>
       </c>
       <c r="F44" s="11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G44" s="11">
         <v>0.25</v>
@@ -18613,7 +18601,7 @@
         <v>57</v>
       </c>
       <c r="F45" s="11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G45" s="11">
         <v>0.25</v>
@@ -18660,7 +18648,7 @@
         <v>58</v>
       </c>
       <c r="F46" s="11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G46" s="11">
         <v>0.25</v>
@@ -18707,7 +18695,7 @@
         <v>60</v>
       </c>
       <c r="F47" s="11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G47" s="11">
         <v>0.25</v>
@@ -18754,7 +18742,7 @@
         <v>61</v>
       </c>
       <c r="F48" s="11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G48" s="11">
         <v>0.25</v>
@@ -18801,7 +18789,7 @@
         <v>62</v>
       </c>
       <c r="F49" s="11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G49" s="11">
         <v>0.25</v>
@@ -18848,7 +18836,7 @@
         <v>63</v>
       </c>
       <c r="F50" s="11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G50" s="11">
         <v>0.25</v>
@@ -18895,7 +18883,7 @@
         <v>65</v>
       </c>
       <c r="F51" s="11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G51" s="11">
         <v>0.25</v>
@@ -18942,7 +18930,7 @@
         <v>66</v>
       </c>
       <c r="F52" s="11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G52" s="11">
         <v>0.25</v>
@@ -18989,7 +18977,7 @@
         <v>67</v>
       </c>
       <c r="F53" s="11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G53" s="11">
         <v>0.25</v>
@@ -19036,7 +19024,7 @@
         <v>68</v>
       </c>
       <c r="F54" s="11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G54" s="11">
         <v>0.25</v>
@@ -19083,7 +19071,7 @@
         <v>70</v>
       </c>
       <c r="F55" s="11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G55" s="11">
         <v>0.25</v>
@@ -19130,7 +19118,7 @@
         <v>71</v>
       </c>
       <c r="F56" s="11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G56" s="11">
         <v>0.25</v>
@@ -19177,7 +19165,7 @@
         <v>72</v>
       </c>
       <c r="F57" s="11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G57" s="11">
         <v>0.25</v>
@@ -19224,7 +19212,7 @@
         <v>73</v>
       </c>
       <c r="F58" s="11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G58" s="11">
         <v>0.25</v>
@@ -19271,7 +19259,7 @@
         <v>75</v>
       </c>
       <c r="F59" s="11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G59" s="11">
         <v>0.25</v>
@@ -19318,7 +19306,7 @@
         <v>76</v>
       </c>
       <c r="F60" s="11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G60" s="11">
         <v>0.25</v>
@@ -19365,7 +19353,7 @@
         <v>77</v>
       </c>
       <c r="F61" s="11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G61" s="11">
         <v>0.25</v>
@@ -19412,7 +19400,7 @@
         <v>78</v>
       </c>
       <c r="F62" s="11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G62" s="11">
         <v>0.25</v>
@@ -19459,7 +19447,7 @@
         <v>80</v>
       </c>
       <c r="F63" s="11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G63" s="11">
         <v>0.25</v>
@@ -19506,7 +19494,7 @@
         <v>82</v>
       </c>
       <c r="F64" s="11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G64" s="11">
         <v>0.25</v>
@@ -19553,7 +19541,7 @@
         <v>85</v>
       </c>
       <c r="F65" s="11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G65" s="11">
         <v>0.25</v>
@@ -19600,7 +19588,7 @@
         <v>87</v>
       </c>
       <c r="F66" s="11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G66" s="11">
         <v>0.25</v>
@@ -19647,7 +19635,7 @@
         <v>90</v>
       </c>
       <c r="F67" s="11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G67" s="11">
         <v>0.25</v>
@@ -19694,7 +19682,7 @@
         <v>92</v>
       </c>
       <c r="F68" s="11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G68" s="11">
         <v>0.25</v>
@@ -19741,7 +19729,7 @@
         <v>95</v>
       </c>
       <c r="F69" s="11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G69" s="11">
         <v>0.25</v>
@@ -19788,7 +19776,7 @@
         <v>97</v>
       </c>
       <c r="F70" s="11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G70" s="11">
         <v>0.25</v>
@@ -19835,7 +19823,7 @@
         <v>100</v>
       </c>
       <c r="F71" s="11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G71" s="11">
         <v>0.25</v>
@@ -19882,7 +19870,7 @@
         <v>102</v>
       </c>
       <c r="F72" s="11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G72" s="11">
         <v>0.25</v>
@@ -19929,7 +19917,7 @@
         <v>105</v>
       </c>
       <c r="F73" s="11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G73" s="11">
         <v>0.25</v>
@@ -19976,7 +19964,7 @@
         <v>107</v>
       </c>
       <c r="F74" s="11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G74" s="11">
         <v>0.25</v>
@@ -20023,7 +20011,7 @@
         <v>110</v>
       </c>
       <c r="F75" s="11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G75" s="11">
         <v>0.25</v>
@@ -20070,7 +20058,7 @@
         <v>112</v>
       </c>
       <c r="F76" s="11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G76" s="11">
         <v>0.25</v>
@@ -20117,7 +20105,7 @@
         <v>115</v>
       </c>
       <c r="F77" s="11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G77" s="11">
         <v>0.25</v>
@@ -20164,7 +20152,7 @@
         <v>117</v>
       </c>
       <c r="F78" s="11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G78" s="11">
         <v>0.25</v>
@@ -20211,7 +20199,7 @@
         <v>120</v>
       </c>
       <c r="F79" s="11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G79" s="11">
         <v>0.25</v>
@@ -20258,7 +20246,7 @@
         <v>122</v>
       </c>
       <c r="F80" s="11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G80" s="11">
         <v>0.25</v>
@@ -20305,7 +20293,7 @@
         <v>125</v>
       </c>
       <c r="F81" s="11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G81" s="11">
         <v>0.25</v>
@@ -20352,7 +20340,7 @@
         <v>127</v>
       </c>
       <c r="F82" s="11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G82" s="11">
         <v>0.25</v>
@@ -20399,7 +20387,7 @@
         <v>130</v>
       </c>
       <c r="F83" s="11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G83" s="11">
         <v>0.25</v>
@@ -20446,7 +20434,7 @@
         <v>132</v>
       </c>
       <c r="F84" s="11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G84" s="11">
         <v>0.25</v>
@@ -20493,7 +20481,7 @@
         <v>135</v>
       </c>
       <c r="F85" s="11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G85" s="11">
         <v>0.25</v>
@@ -20540,7 +20528,7 @@
         <v>137</v>
       </c>
       <c r="F86" s="11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G86" s="11">
         <v>0.25</v>
@@ -20587,7 +20575,7 @@
         <v>140</v>
       </c>
       <c r="F87" s="11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G87" s="11">
         <v>0.25</v>
@@ -20634,7 +20622,7 @@
         <v>142</v>
       </c>
       <c r="F88" s="11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G88" s="11">
         <v>0.25</v>
@@ -20681,7 +20669,7 @@
         <v>145</v>
       </c>
       <c r="F89" s="11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G89" s="11">
         <v>0.25</v>
@@ -20728,7 +20716,7 @@
         <v>147</v>
       </c>
       <c r="F90" s="11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G90" s="11">
         <v>0.25</v>
@@ -20775,7 +20763,7 @@
         <v>150</v>
       </c>
       <c r="F91" s="11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G91" s="11">
         <v>0.25</v>
@@ -20822,7 +20810,7 @@
         <v>152</v>
       </c>
       <c r="F92" s="11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G92" s="11">
         <v>0.25</v>
@@ -20869,7 +20857,7 @@
         <v>155</v>
       </c>
       <c r="F93" s="11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G93" s="11">
         <v>0.25</v>
@@ -20916,7 +20904,7 @@
         <v>157</v>
       </c>
       <c r="F94" s="11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G94" s="11">
         <v>0.25</v>
@@ -20963,7 +20951,7 @@
         <v>160</v>
       </c>
       <c r="F95" s="11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G95" s="11">
         <v>0.25</v>
@@ -21010,7 +20998,7 @@
         <v>162</v>
       </c>
       <c r="F96" s="11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G96" s="11">
         <v>0.25</v>
@@ -21057,7 +21045,7 @@
         <v>165</v>
       </c>
       <c r="F97" s="11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G97" s="11">
         <v>0.25</v>
@@ -21104,7 +21092,7 @@
         <v>167</v>
       </c>
       <c r="F98" s="11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G98" s="11">
         <v>0.25</v>
@@ -21151,7 +21139,7 @@
         <v>170</v>
       </c>
       <c r="F99" s="11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G99" s="11">
         <v>0.25</v>
@@ -21198,7 +21186,7 @@
         <v>172</v>
       </c>
       <c r="F100" s="11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G100" s="11">
         <v>0.25</v>
@@ -21245,7 +21233,7 @@
         <v>175</v>
       </c>
       <c r="F101" s="11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G101" s="11">
         <v>0.25</v>
@@ -21292,7 +21280,7 @@
         <v>177</v>
       </c>
       <c r="F102" s="11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G102" s="11">
         <v>0.25</v>
@@ -21339,7 +21327,7 @@
         <v>180</v>
       </c>
       <c r="F103" s="11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G103" s="11">
         <v>0.25</v>
@@ -21386,7 +21374,7 @@
         <v>182</v>
       </c>
       <c r="F104" s="11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G104" s="11">
         <v>0.25</v>
@@ -21433,7 +21421,7 @@
         <v>185</v>
       </c>
       <c r="F105" s="11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G105" s="11">
         <v>0.25</v>
@@ -21480,7 +21468,7 @@
         <v>187</v>
       </c>
       <c r="F106" s="11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G106" s="11">
         <v>0.25</v>
@@ -21527,7 +21515,7 @@
         <v>190</v>
       </c>
       <c r="F107" s="11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G107" s="11">
         <v>0.25</v>
@@ -21574,7 +21562,7 @@
         <v>192</v>
       </c>
       <c r="F108" s="11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G108" s="11">
         <v>0.25</v>
@@ -21621,7 +21609,7 @@
         <v>195</v>
       </c>
       <c r="F109" s="11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G109" s="11">
         <v>0.25</v>
@@ -21668,7 +21656,7 @@
         <v>197</v>
       </c>
       <c r="F110" s="11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G110" s="11">
         <v>0.25</v>
@@ -21715,7 +21703,7 @@
         <v>200</v>
       </c>
       <c r="F111" s="11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G111" s="11">
         <v>0.25</v>
@@ -21762,7 +21750,7 @@
         <v>202</v>
       </c>
       <c r="F112" s="11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G112" s="11">
         <v>0.25</v>
@@ -21809,7 +21797,7 @@
         <v>205</v>
       </c>
       <c r="F113" s="11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G113" s="11">
         <v>0.25</v>
@@ -21856,7 +21844,7 @@
         <v>207</v>
       </c>
       <c r="F114" s="11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G114" s="11">
         <v>0.25</v>
@@ -21903,7 +21891,7 @@
         <v>210</v>
       </c>
       <c r="F115" s="11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G115" s="11">
         <v>0.25</v>
@@ -21950,7 +21938,7 @@
         <v>212</v>
       </c>
       <c r="F116" s="11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G116" s="11">
         <v>0.25</v>
@@ -21997,7 +21985,7 @@
         <v>215</v>
       </c>
       <c r="F117" s="11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G117" s="11">
         <v>0.25</v>
@@ -22044,7 +22032,7 @@
         <v>217</v>
       </c>
       <c r="F118" s="11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G118" s="11">
         <v>0.25</v>
@@ -22091,7 +22079,7 @@
         <v>220</v>
       </c>
       <c r="F119" s="11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G119" s="11">
         <v>0.25</v>
@@ -22138,7 +22126,7 @@
         <v>220</v>
       </c>
       <c r="F120" s="11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G120" s="11">
         <v>0.25</v>
@@ -22185,7 +22173,7 @@
         <v>220</v>
       </c>
       <c r="F121" s="11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G121" s="11">
         <v>0.25</v>
@@ -22232,7 +22220,7 @@
         <v>220</v>
       </c>
       <c r="F122" s="11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G122" s="11">
         <v>0.25</v>
@@ -22279,7 +22267,7 @@
         <v>220</v>
       </c>
       <c r="F123" s="11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G123" s="11">
         <v>0.25</v>
@@ -22489,8 +22477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BD123"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AW10" sqref="AW10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -23041,7 +23029,7 @@
       <c r="L4" s="12"/>
       <c r="M4" s="12">
         <f>INDEX([1]挂机派遣章节!$H$4:$H$33,挂机派遣!BA4)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N4" s="13"/>
       <c r="O4" s="12"/>
@@ -23135,7 +23123,7 @@
       <c r="L5" s="12"/>
       <c r="M5" s="12">
         <f>INDEX([1]挂机派遣章节!$H$4:$H$33,挂机派遣!BA5)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N5" s="13"/>
       <c r="O5" s="12"/>
@@ -23229,7 +23217,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="12">
         <f>INDEX([1]挂机派遣章节!$H$4:$H$33,挂机派遣!BA6)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N6" s="13"/>
       <c r="O6" s="12"/>
@@ -23323,7 +23311,7 @@
       <c r="L7" s="12"/>
       <c r="M7" s="12">
         <f>INDEX([1]挂机派遣章节!$H$4:$H$33,挂机派遣!BA7)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N7" s="13"/>
       <c r="O7" s="12"/>
@@ -23417,7 +23405,7 @@
       <c r="L8" s="12"/>
       <c r="M8" s="12">
         <f>INDEX([1]挂机派遣章节!$H$4:$H$33,挂机派遣!BA8)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N8" s="13"/>
       <c r="O8" s="12"/>
@@ -23511,7 +23499,7 @@
       <c r="L9" s="12"/>
       <c r="M9" s="12">
         <f>INDEX([1]挂机派遣章节!$H$4:$H$33,挂机派遣!BA9)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N9" s="13"/>
       <c r="O9" s="12"/>
@@ -23605,7 +23593,7 @@
       <c r="L10" s="12"/>
       <c r="M10" s="12">
         <f>INDEX([1]挂机派遣章节!$H$4:$H$33,挂机派遣!BA10)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N10" s="13"/>
       <c r="O10" s="12"/>
@@ -23699,7 +23687,7 @@
       <c r="L11" s="12"/>
       <c r="M11" s="12">
         <f>INDEX([1]挂机派遣章节!$H$4:$H$33,挂机派遣!BA11)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N11" s="13"/>
       <c r="O11" s="12"/>
@@ -23793,7 +23781,7 @@
       <c r="L12" s="12"/>
       <c r="M12" s="12">
         <f>INDEX([1]挂机派遣章节!$H$4:$H$33,挂机派遣!BA12)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N12" s="13"/>
       <c r="O12" s="12"/>
@@ -23887,7 +23875,7 @@
       <c r="L13" s="12"/>
       <c r="M13" s="12">
         <f>INDEX([1]挂机派遣章节!$H$4:$H$33,挂机派遣!BA13)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N13" s="13"/>
       <c r="O13" s="12"/>
@@ -23981,7 +23969,7 @@
       <c r="L14" s="12"/>
       <c r="M14" s="12">
         <f>INDEX([1]挂机派遣章节!$H$4:$H$33,挂机派遣!BA14)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N14" s="13"/>
       <c r="O14" s="12"/>
@@ -24075,7 +24063,7 @@
       <c r="L15" s="12"/>
       <c r="M15" s="12">
         <f>INDEX([1]挂机派遣章节!$H$4:$H$33,挂机派遣!BA15)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N15" s="13"/>
       <c r="O15" s="12"/>
@@ -24169,7 +24157,7 @@
       <c r="L16" s="12"/>
       <c r="M16" s="12">
         <f>INDEX([1]挂机派遣章节!$H$4:$H$33,挂机派遣!BA16)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N16" s="13"/>
       <c r="O16" s="12"/>
@@ -24263,7 +24251,7 @@
       <c r="L17" s="12"/>
       <c r="M17" s="12">
         <f>INDEX([1]挂机派遣章节!$H$4:$H$33,挂机派遣!BA17)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N17" s="13"/>
       <c r="O17" s="12"/>
@@ -24357,7 +24345,7 @@
       <c r="L18" s="12"/>
       <c r="M18" s="12">
         <f>INDEX([1]挂机派遣章节!$H$4:$H$33,挂机派遣!BA18)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N18" s="13"/>
       <c r="O18" s="12"/>
@@ -24451,7 +24439,7 @@
       <c r="L19" s="12"/>
       <c r="M19" s="12">
         <f>INDEX([1]挂机派遣章节!$H$4:$H$33,挂机派遣!BA19)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N19" s="13"/>
       <c r="O19" s="12"/>
@@ -24545,7 +24533,7 @@
       <c r="L20" s="12"/>
       <c r="M20" s="12">
         <f>INDEX([1]挂机派遣章节!$H$4:$H$33,挂机派遣!BA20)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N20" s="13"/>
       <c r="O20" s="12"/>
@@ -24639,7 +24627,7 @@
       <c r="L21" s="12"/>
       <c r="M21" s="12">
         <f>INDEX([1]挂机派遣章节!$H$4:$H$33,挂机派遣!BA21)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N21" s="13"/>
       <c r="O21" s="12"/>
@@ -24733,7 +24721,7 @@
       <c r="L22" s="12"/>
       <c r="M22" s="12">
         <f>INDEX([1]挂机派遣章节!$H$4:$H$33,挂机派遣!BA22)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N22" s="13"/>
       <c r="O22" s="12"/>
@@ -24827,7 +24815,7 @@
       <c r="L23" s="12"/>
       <c r="M23" s="12">
         <f>INDEX([1]挂机派遣章节!$H$4:$H$33,挂机派遣!BA23)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N23" s="13"/>
       <c r="O23" s="12"/>
@@ -24921,7 +24909,7 @@
       <c r="L24" s="12"/>
       <c r="M24" s="12">
         <f>INDEX([1]挂机派遣章节!$H$4:$H$33,挂机派遣!BA24)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N24" s="13"/>
       <c r="O24" s="12"/>
@@ -25015,7 +25003,7 @@
       <c r="L25" s="12"/>
       <c r="M25" s="12">
         <f>INDEX([1]挂机派遣章节!$H$4:$H$33,挂机派遣!BA25)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N25" s="13"/>
       <c r="O25" s="12"/>
@@ -25109,7 +25097,7 @@
       <c r="L26" s="12"/>
       <c r="M26" s="12">
         <f>INDEX([1]挂机派遣章节!$H$4:$H$33,挂机派遣!BA26)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N26" s="13"/>
       <c r="O26" s="12"/>
@@ -25203,7 +25191,7 @@
       <c r="L27" s="12"/>
       <c r="M27" s="12">
         <f>INDEX([1]挂机派遣章节!$H$4:$H$33,挂机派遣!BA27)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N27" s="13"/>
       <c r="O27" s="12"/>
@@ -25297,7 +25285,7 @@
       <c r="L28" s="12"/>
       <c r="M28" s="12">
         <f>INDEX([1]挂机派遣章节!$H$4:$H$33,挂机派遣!BA28)</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N28" s="13"/>
       <c r="O28" s="12"/>
@@ -25391,7 +25379,7 @@
       <c r="L29" s="12"/>
       <c r="M29" s="12">
         <f>INDEX([1]挂机派遣章节!$H$4:$H$33,挂机派遣!BA29)</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N29" s="13"/>
       <c r="O29" s="12"/>
@@ -25485,7 +25473,7 @@
       <c r="L30" s="12"/>
       <c r="M30" s="12">
         <f>INDEX([1]挂机派遣章节!$H$4:$H$33,挂机派遣!BA30)</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N30" s="13"/>
       <c r="O30" s="12"/>
@@ -25579,7 +25567,7 @@
       <c r="L31" s="12"/>
       <c r="M31" s="12">
         <f>INDEX([1]挂机派遣章节!$H$4:$H$33,挂机派遣!BA31)</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N31" s="13"/>
       <c r="O31" s="12"/>
@@ -25673,7 +25661,7 @@
       <c r="L32" s="12"/>
       <c r="M32" s="12">
         <f>INDEX([1]挂机派遣章节!$H$4:$H$33,挂机派遣!BA32)</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N32" s="13"/>
       <c r="O32" s="12"/>
@@ -25767,7 +25755,7 @@
       <c r="L33" s="12"/>
       <c r="M33" s="12">
         <f>INDEX([1]挂机派遣章节!$H$4:$H$33,挂机派遣!BA33)</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N33" s="13"/>
       <c r="O33" s="12"/>
@@ -25861,7 +25849,7 @@
       <c r="L34" s="12"/>
       <c r="M34" s="12">
         <f>INDEX([1]挂机派遣章节!$H$4:$H$33,挂机派遣!BA34)</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N34" s="13"/>
       <c r="O34" s="12"/>
@@ -25955,7 +25943,7 @@
       <c r="L35" s="12"/>
       <c r="M35" s="12">
         <f>INDEX([1]挂机派遣章节!$H$4:$H$33,挂机派遣!BA35)</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N35" s="13"/>
       <c r="O35" s="12"/>
@@ -26049,7 +26037,7 @@
       <c r="L36" s="12"/>
       <c r="M36" s="12">
         <f>INDEX([1]挂机派遣章节!$H$4:$H$33,挂机派遣!BA36)</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N36" s="13"/>
       <c r="O36" s="12"/>
@@ -26143,7 +26131,7 @@
       <c r="L37" s="12"/>
       <c r="M37" s="12">
         <f>INDEX([1]挂机派遣章节!$H$4:$H$33,挂机派遣!BA37)</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N37" s="13"/>
       <c r="O37" s="12"/>
@@ -26237,7 +26225,7 @@
       <c r="L38" s="12"/>
       <c r="M38" s="12">
         <f>INDEX([1]挂机派遣章节!$H$4:$H$33,挂机派遣!BA38)</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N38" s="13"/>
       <c r="O38" s="12"/>
@@ -26331,7 +26319,7 @@
       <c r="L39" s="12"/>
       <c r="M39" s="12">
         <f>INDEX([1]挂机派遣章节!$H$4:$H$33,挂机派遣!BA39)</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N39" s="13"/>
       <c r="O39" s="12"/>
@@ -26425,7 +26413,7 @@
       <c r="L40" s="12"/>
       <c r="M40" s="12">
         <f>INDEX([1]挂机派遣章节!$H$4:$H$33,挂机派遣!BA40)</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N40" s="13"/>
       <c r="O40" s="12"/>
@@ -26519,7 +26507,7 @@
       <c r="L41" s="12"/>
       <c r="M41" s="12">
         <f>INDEX([1]挂机派遣章节!$H$4:$H$33,挂机派遣!BA41)</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N41" s="13"/>
       <c r="O41" s="12"/>
@@ -26613,7 +26601,7 @@
       <c r="L42" s="12"/>
       <c r="M42" s="12">
         <f>INDEX([1]挂机派遣章节!$H$4:$H$33,挂机派遣!BA42)</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N42" s="13"/>
       <c r="O42" s="12"/>
@@ -26707,7 +26695,7 @@
       <c r="L43" s="12"/>
       <c r="M43" s="12">
         <f>INDEX([1]挂机派遣章节!$H$4:$H$33,挂机派遣!BA43)</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N43" s="13"/>
       <c r="O43" s="12"/>
@@ -26801,7 +26789,7 @@
       <c r="L44" s="12"/>
       <c r="M44" s="12">
         <f>INDEX([1]挂机派遣章节!$H$4:$H$33,挂机派遣!BA44)</f>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N44" s="13"/>
       <c r="O44" s="12"/>
@@ -26895,7 +26883,7 @@
       <c r="L45" s="12"/>
       <c r="M45" s="12">
         <f>INDEX([1]挂机派遣章节!$H$4:$H$33,挂机派遣!BA45)</f>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N45" s="13"/>
       <c r="O45" s="12"/>
@@ -26989,7 +26977,7 @@
       <c r="L46" s="12"/>
       <c r="M46" s="12">
         <f>INDEX([1]挂机派遣章节!$H$4:$H$33,挂机派遣!BA46)</f>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N46" s="13"/>
       <c r="O46" s="12"/>
@@ -27083,7 +27071,7 @@
       <c r="L47" s="12"/>
       <c r="M47" s="12">
         <f>INDEX([1]挂机派遣章节!$H$4:$H$33,挂机派遣!BA47)</f>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N47" s="13"/>
       <c r="O47" s="12"/>
@@ -27177,7 +27165,7 @@
       <c r="L48" s="12"/>
       <c r="M48" s="12">
         <f>INDEX([1]挂机派遣章节!$H$4:$H$33,挂机派遣!BA48)</f>
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="N48" s="13"/>
       <c r="O48" s="12"/>
@@ -27271,7 +27259,7 @@
       <c r="L49" s="12"/>
       <c r="M49" s="12">
         <f>INDEX([1]挂机派遣章节!$H$4:$H$33,挂机派遣!BA49)</f>
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="N49" s="13"/>
       <c r="O49" s="12"/>
@@ -27365,7 +27353,7 @@
       <c r="L50" s="12"/>
       <c r="M50" s="12">
         <f>INDEX([1]挂机派遣章节!$H$4:$H$33,挂机派遣!BA50)</f>
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="N50" s="13"/>
       <c r="O50" s="12"/>
@@ -27459,7 +27447,7 @@
       <c r="L51" s="12"/>
       <c r="M51" s="12">
         <f>INDEX([1]挂机派遣章节!$H$4:$H$33,挂机派遣!BA51)</f>
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="N51" s="13"/>
       <c r="O51" s="12"/>
@@ -27553,7 +27541,7 @@
       <c r="L52" s="12"/>
       <c r="M52" s="12">
         <f>INDEX([1]挂机派遣章节!$H$4:$H$33,挂机派遣!BA52)</f>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N52" s="13"/>
       <c r="O52" s="12"/>
@@ -27647,7 +27635,7 @@
       <c r="L53" s="12"/>
       <c r="M53" s="12">
         <f>INDEX([1]挂机派遣章节!$H$4:$H$33,挂机派遣!BA53)</f>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N53" s="13"/>
       <c r="O53" s="12"/>
@@ -27741,7 +27729,7 @@
       <c r="L54" s="12"/>
       <c r="M54" s="12">
         <f>INDEX([1]挂机派遣章节!$H$4:$H$33,挂机派遣!BA54)</f>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N54" s="13"/>
       <c r="O54" s="12"/>
@@ -27835,7 +27823,7 @@
       <c r="L55" s="12"/>
       <c r="M55" s="12">
         <f>INDEX([1]挂机派遣章节!$H$4:$H$33,挂机派遣!BA55)</f>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N55" s="13"/>
       <c r="O55" s="12"/>
@@ -27929,7 +27917,7 @@
       <c r="L56" s="12"/>
       <c r="M56" s="12">
         <f>INDEX([1]挂机派遣章节!$H$4:$H$33,挂机派遣!BA56)</f>
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="N56" s="13"/>
       <c r="O56" s="12"/>
@@ -28023,7 +28011,7 @@
       <c r="L57" s="12"/>
       <c r="M57" s="12">
         <f>INDEX([1]挂机派遣章节!$H$4:$H$33,挂机派遣!BA57)</f>
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="N57" s="13"/>
       <c r="O57" s="12"/>
@@ -28117,7 +28105,7 @@
       <c r="L58" s="12"/>
       <c r="M58" s="12">
         <f>INDEX([1]挂机派遣章节!$H$4:$H$33,挂机派遣!BA58)</f>
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="N58" s="13"/>
       <c r="O58" s="12"/>
@@ -28211,7 +28199,7 @@
       <c r="L59" s="12"/>
       <c r="M59" s="12">
         <f>INDEX([1]挂机派遣章节!$H$4:$H$33,挂机派遣!BA59)</f>
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="N59" s="13"/>
       <c r="O59" s="12"/>
@@ -28305,7 +28293,7 @@
       <c r="L60" s="12"/>
       <c r="M60" s="12">
         <f>INDEX([1]挂机派遣章节!$H$4:$H$33,挂机派遣!BA60)</f>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N60" s="13"/>
       <c r="O60" s="12"/>
@@ -28399,7 +28387,7 @@
       <c r="L61" s="12"/>
       <c r="M61" s="12">
         <f>INDEX([1]挂机派遣章节!$H$4:$H$33,挂机派遣!BA61)</f>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N61" s="13"/>
       <c r="O61" s="12"/>
@@ -28493,7 +28481,7 @@
       <c r="L62" s="12"/>
       <c r="M62" s="12">
         <f>INDEX([1]挂机派遣章节!$H$4:$H$33,挂机派遣!BA62)</f>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N62" s="13"/>
       <c r="O62" s="12"/>
@@ -28587,7 +28575,7 @@
       <c r="L63" s="12"/>
       <c r="M63" s="12">
         <f>INDEX([1]挂机派遣章节!$H$4:$H$33,挂机派遣!BA63)</f>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N63" s="13"/>
       <c r="O63" s="12"/>
@@ -28681,7 +28669,7 @@
       <c r="L64" s="12"/>
       <c r="M64" s="12">
         <f>INDEX([1]挂机派遣章节!$H$4:$H$33,挂机派遣!BA64)</f>
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N64" s="13"/>
       <c r="O64" s="12"/>
@@ -28775,7 +28763,7 @@
       <c r="L65" s="12"/>
       <c r="M65" s="12">
         <f>INDEX([1]挂机派遣章节!$H$4:$H$33,挂机派遣!BA65)</f>
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N65" s="13"/>
       <c r="O65" s="12"/>
@@ -28869,7 +28857,7 @@
       <c r="L66" s="12"/>
       <c r="M66" s="12">
         <f>INDEX([1]挂机派遣章节!$H$4:$H$33,挂机派遣!BA66)</f>
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N66" s="13"/>
       <c r="O66" s="12"/>
@@ -28963,7 +28951,7 @@
       <c r="L67" s="12"/>
       <c r="M67" s="12">
         <f>INDEX([1]挂机派遣章节!$H$4:$H$33,挂机派遣!BA67)</f>
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N67" s="13"/>
       <c r="O67" s="12"/>
@@ -29057,7 +29045,7 @@
       <c r="L68" s="12"/>
       <c r="M68" s="12">
         <f>INDEX([1]挂机派遣章节!$H$4:$H$33,挂机派遣!BA68)</f>
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N68" s="13"/>
       <c r="O68" s="12"/>
@@ -29151,7 +29139,7 @@
       <c r="L69" s="12"/>
       <c r="M69" s="12">
         <f>INDEX([1]挂机派遣章节!$H$4:$H$33,挂机派遣!BA69)</f>
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N69" s="13"/>
       <c r="O69" s="12"/>
@@ -29245,7 +29233,7 @@
       <c r="L70" s="12"/>
       <c r="M70" s="12">
         <f>INDEX([1]挂机派遣章节!$H$4:$H$33,挂机派遣!BA70)</f>
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N70" s="13"/>
       <c r="O70" s="12"/>
@@ -29339,7 +29327,7 @@
       <c r="L71" s="12"/>
       <c r="M71" s="12">
         <f>INDEX([1]挂机派遣章节!$H$4:$H$33,挂机派遣!BA71)</f>
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N71" s="13"/>
       <c r="O71" s="12"/>
@@ -29433,7 +29421,7 @@
       <c r="L72" s="12"/>
       <c r="M72" s="12">
         <f>INDEX([1]挂机派遣章节!$H$4:$H$33,挂机派遣!BA72)</f>
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="N72" s="13"/>
       <c r="O72" s="12"/>
@@ -29527,7 +29515,7 @@
       <c r="L73" s="12"/>
       <c r="M73" s="12">
         <f>INDEX([1]挂机派遣章节!$H$4:$H$33,挂机派遣!BA73)</f>
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="N73" s="13"/>
       <c r="O73" s="12"/>
@@ -29621,7 +29609,7 @@
       <c r="L74" s="12"/>
       <c r="M74" s="12">
         <f>INDEX([1]挂机派遣章节!$H$4:$H$33,挂机派遣!BA74)</f>
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="N74" s="13"/>
       <c r="O74" s="12"/>
@@ -29715,7 +29703,7 @@
       <c r="L75" s="12"/>
       <c r="M75" s="12">
         <f>INDEX([1]挂机派遣章节!$H$4:$H$33,挂机派遣!BA75)</f>
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="N75" s="13"/>
       <c r="O75" s="12"/>
@@ -29809,7 +29797,7 @@
       <c r="L76" s="12"/>
       <c r="M76" s="12">
         <f>INDEX([1]挂机派遣章节!$H$4:$H$33,挂机派遣!BA76)</f>
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="N76" s="13"/>
       <c r="O76" s="12"/>
@@ -29903,7 +29891,7 @@
       <c r="L77" s="12"/>
       <c r="M77" s="12">
         <f>INDEX([1]挂机派遣章节!$H$4:$H$33,挂机派遣!BA77)</f>
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="N77" s="13"/>
       <c r="O77" s="12"/>
@@ -29997,7 +29985,7 @@
       <c r="L78" s="12"/>
       <c r="M78" s="12">
         <f>INDEX([1]挂机派遣章节!$H$4:$H$33,挂机派遣!BA78)</f>
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="N78" s="13"/>
       <c r="O78" s="12"/>
@@ -30091,7 +30079,7 @@
       <c r="L79" s="12"/>
       <c r="M79" s="12">
         <f>INDEX([1]挂机派遣章节!$H$4:$H$33,挂机派遣!BA79)</f>
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="N79" s="13"/>
       <c r="O79" s="12"/>
@@ -30185,7 +30173,7 @@
       <c r="L80" s="12"/>
       <c r="M80" s="12">
         <f>INDEX([1]挂机派遣章节!$H$4:$H$33,挂机派遣!BA80)</f>
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="N80" s="13"/>
       <c r="O80" s="12"/>
@@ -30279,7 +30267,7 @@
       <c r="L81" s="12"/>
       <c r="M81" s="12">
         <f>INDEX([1]挂机派遣章节!$H$4:$H$33,挂机派遣!BA81)</f>
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="N81" s="13"/>
       <c r="O81" s="12"/>
@@ -30373,7 +30361,7 @@
       <c r="L82" s="12"/>
       <c r="M82" s="12">
         <f>INDEX([1]挂机派遣章节!$H$4:$H$33,挂机派遣!BA82)</f>
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="N82" s="13"/>
       <c r="O82" s="12"/>
@@ -30467,7 +30455,7 @@
       <c r="L83" s="12"/>
       <c r="M83" s="12">
         <f>INDEX([1]挂机派遣章节!$H$4:$H$33,挂机派遣!BA83)</f>
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="N83" s="13"/>
       <c r="O83" s="12"/>
@@ -30561,7 +30549,7 @@
       <c r="L84" s="12"/>
       <c r="M84" s="12">
         <f>INDEX([1]挂机派遣章节!$H$4:$H$33,挂机派遣!BA84)</f>
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N84" s="13"/>
       <c r="O84" s="12"/>
@@ -30655,7 +30643,7 @@
       <c r="L85" s="12"/>
       <c r="M85" s="12">
         <f>INDEX([1]挂机派遣章节!$H$4:$H$33,挂机派遣!BA85)</f>
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N85" s="13"/>
       <c r="O85" s="12"/>
@@ -30749,7 +30737,7 @@
       <c r="L86" s="12"/>
       <c r="M86" s="12">
         <f>INDEX([1]挂机派遣章节!$H$4:$H$33,挂机派遣!BA86)</f>
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N86" s="13"/>
       <c r="O86" s="12"/>
@@ -30843,7 +30831,7 @@
       <c r="L87" s="12"/>
       <c r="M87" s="12">
         <f>INDEX([1]挂机派遣章节!$H$4:$H$33,挂机派遣!BA87)</f>
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N87" s="13"/>
       <c r="O87" s="12"/>
@@ -30937,7 +30925,7 @@
       <c r="L88" s="12"/>
       <c r="M88" s="12">
         <f>INDEX([1]挂机派遣章节!$H$4:$H$33,挂机派遣!BA88)</f>
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="N88" s="13"/>
       <c r="O88" s="12"/>
@@ -31031,7 +31019,7 @@
       <c r="L89" s="12"/>
       <c r="M89" s="12">
         <f>INDEX([1]挂机派遣章节!$H$4:$H$33,挂机派遣!BA89)</f>
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="N89" s="13"/>
       <c r="O89" s="12"/>
@@ -31125,7 +31113,7 @@
       <c r="L90" s="12"/>
       <c r="M90" s="12">
         <f>INDEX([1]挂机派遣章节!$H$4:$H$33,挂机派遣!BA90)</f>
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="N90" s="13"/>
       <c r="O90" s="12"/>
@@ -31219,7 +31207,7 @@
       <c r="L91" s="12"/>
       <c r="M91" s="12">
         <f>INDEX([1]挂机派遣章节!$H$4:$H$33,挂机派遣!BA91)</f>
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="N91" s="13"/>
       <c r="O91" s="12"/>
@@ -31313,7 +31301,7 @@
       <c r="L92" s="12"/>
       <c r="M92" s="12">
         <f>INDEX([1]挂机派遣章节!$H$4:$H$33,挂机派遣!BA92)</f>
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="N92" s="13"/>
       <c r="O92" s="12"/>
@@ -31407,7 +31395,7 @@
       <c r="L93" s="12"/>
       <c r="M93" s="12">
         <f>INDEX([1]挂机派遣章节!$H$4:$H$33,挂机派遣!BA93)</f>
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="N93" s="13"/>
       <c r="O93" s="12"/>
@@ -31501,7 +31489,7 @@
       <c r="L94" s="12"/>
       <c r="M94" s="12">
         <f>INDEX([1]挂机派遣章节!$H$4:$H$33,挂机派遣!BA94)</f>
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="N94" s="13"/>
       <c r="O94" s="12"/>
@@ -31595,7 +31583,7 @@
       <c r="L95" s="12"/>
       <c r="M95" s="12">
         <f>INDEX([1]挂机派遣章节!$H$4:$H$33,挂机派遣!BA95)</f>
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="N95" s="13"/>
       <c r="O95" s="12"/>
@@ -31689,7 +31677,7 @@
       <c r="L96" s="12"/>
       <c r="M96" s="12">
         <f>INDEX([1]挂机派遣章节!$H$4:$H$33,挂机派遣!BA96)</f>
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="N96" s="13"/>
       <c r="O96" s="12"/>
@@ -31783,7 +31771,7 @@
       <c r="L97" s="12"/>
       <c r="M97" s="12">
         <f>INDEX([1]挂机派遣章节!$H$4:$H$33,挂机派遣!BA97)</f>
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="N97" s="13"/>
       <c r="O97" s="12"/>
@@ -31877,7 +31865,7 @@
       <c r="L98" s="12"/>
       <c r="M98" s="12">
         <f>INDEX([1]挂机派遣章节!$H$4:$H$33,挂机派遣!BA98)</f>
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="N98" s="13"/>
       <c r="O98" s="12"/>
@@ -31971,7 +31959,7 @@
       <c r="L99" s="12"/>
       <c r="M99" s="12">
         <f>INDEX([1]挂机派遣章节!$H$4:$H$33,挂机派遣!BA99)</f>
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="N99" s="13"/>
       <c r="O99" s="12"/>
@@ -32065,7 +32053,7 @@
       <c r="L100" s="12"/>
       <c r="M100" s="12">
         <f>INDEX([1]挂机派遣章节!$H$4:$H$33,挂机派遣!BA100)</f>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="N100" s="13"/>
       <c r="O100" s="12"/>
@@ -32159,7 +32147,7 @@
       <c r="L101" s="12"/>
       <c r="M101" s="12">
         <f>INDEX([1]挂机派遣章节!$H$4:$H$33,挂机派遣!BA101)</f>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="N101" s="13"/>
       <c r="O101" s="12"/>
@@ -32253,7 +32241,7 @@
       <c r="L102" s="12"/>
       <c r="M102" s="12">
         <f>INDEX([1]挂机派遣章节!$H$4:$H$33,挂机派遣!BA102)</f>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="N102" s="13"/>
       <c r="O102" s="12"/>
@@ -32347,7 +32335,7 @@
       <c r="L103" s="12"/>
       <c r="M103" s="12">
         <f>INDEX([1]挂机派遣章节!$H$4:$H$33,挂机派遣!BA103)</f>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="N103" s="13"/>
       <c r="O103" s="12"/>
@@ -32441,7 +32429,7 @@
       <c r="L104" s="12"/>
       <c r="M104" s="12">
         <f>INDEX([1]挂机派遣章节!$H$4:$H$33,挂机派遣!BA104)</f>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="N104" s="13"/>
       <c r="O104" s="12"/>
@@ -32535,7 +32523,7 @@
       <c r="L105" s="12"/>
       <c r="M105" s="12">
         <f>INDEX([1]挂机派遣章节!$H$4:$H$33,挂机派遣!BA105)</f>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="N105" s="13"/>
       <c r="O105" s="12"/>
@@ -32629,7 +32617,7 @@
       <c r="L106" s="12"/>
       <c r="M106" s="12">
         <f>INDEX([1]挂机派遣章节!$H$4:$H$33,挂机派遣!BA106)</f>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="N106" s="13"/>
       <c r="O106" s="12"/>
@@ -32723,7 +32711,7 @@
       <c r="L107" s="12"/>
       <c r="M107" s="12">
         <f>INDEX([1]挂机派遣章节!$H$4:$H$33,挂机派遣!BA107)</f>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="N107" s="13"/>
       <c r="O107" s="12"/>
@@ -32817,7 +32805,7 @@
       <c r="L108" s="12"/>
       <c r="M108" s="12">
         <f>INDEX([1]挂机派遣章节!$H$4:$H$33,挂机派遣!BA108)</f>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="N108" s="13"/>
       <c r="O108" s="12"/>
@@ -32911,7 +32899,7 @@
       <c r="L109" s="12"/>
       <c r="M109" s="12">
         <f>INDEX([1]挂机派遣章节!$H$4:$H$33,挂机派遣!BA109)</f>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="N109" s="13"/>
       <c r="O109" s="12"/>
@@ -33005,7 +32993,7 @@
       <c r="L110" s="12"/>
       <c r="M110" s="12">
         <f>INDEX([1]挂机派遣章节!$H$4:$H$33,挂机派遣!BA110)</f>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="N110" s="13"/>
       <c r="O110" s="12"/>
@@ -33099,7 +33087,7 @@
       <c r="L111" s="12"/>
       <c r="M111" s="12">
         <f>INDEX([1]挂机派遣章节!$H$4:$H$33,挂机派遣!BA111)</f>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="N111" s="13"/>
       <c r="O111" s="12"/>
@@ -33193,7 +33181,7 @@
       <c r="L112" s="12"/>
       <c r="M112" s="12">
         <f>INDEX([1]挂机派遣章节!$H$4:$H$33,挂机派遣!BA112)</f>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="N112" s="13"/>
       <c r="O112" s="12"/>
@@ -33287,7 +33275,7 @@
       <c r="L113" s="12"/>
       <c r="M113" s="12">
         <f>INDEX([1]挂机派遣章节!$H$4:$H$33,挂机派遣!BA113)</f>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="N113" s="13"/>
       <c r="O113" s="12"/>
@@ -33381,7 +33369,7 @@
       <c r="L114" s="12"/>
       <c r="M114" s="12">
         <f>INDEX([1]挂机派遣章节!$H$4:$H$33,挂机派遣!BA114)</f>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="N114" s="13"/>
       <c r="O114" s="12"/>
@@ -33475,7 +33463,7 @@
       <c r="L115" s="12"/>
       <c r="M115" s="12">
         <f>INDEX([1]挂机派遣章节!$H$4:$H$33,挂机派遣!BA115)</f>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="N115" s="13"/>
       <c r="O115" s="12"/>
@@ -33910,14 +33898,14 @@
     <row r="120" spans="1:56" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A120" s="12">
         <f t="shared" si="2"/>
-        <v>33001</v>
+        <v>1</v>
       </c>
       <c r="B120" s="12">
         <v>117</v>
       </c>
       <c r="C120" s="12">
         <f>INDEX([1]挂机派遣章节!$B$4:$B$33,挂机派遣!BA120)</f>
-        <v>330</v>
+        <v>0</v>
       </c>
       <c r="D120" s="12" t="s">
         <v>300</v>
@@ -33945,7 +33933,7 @@
       <c r="L120" s="12"/>
       <c r="M120" s="12">
         <f>INDEX([1]挂机派遣章节!$H$4:$H$33,挂机派遣!BA120)</f>
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="N120" s="13"/>
       <c r="O120" s="12"/>
@@ -34004,14 +33992,14 @@
     <row r="121" spans="1:56" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A121" s="12">
         <f t="shared" si="2"/>
-        <v>33002</v>
+        <v>2</v>
       </c>
       <c r="B121" s="12">
         <v>118</v>
       </c>
       <c r="C121" s="12">
         <f>INDEX([1]挂机派遣章节!$B$4:$B$33,挂机派遣!BA121)</f>
-        <v>330</v>
+        <v>0</v>
       </c>
       <c r="D121" s="12" t="s">
         <v>300</v>
@@ -34039,7 +34027,7 @@
       <c r="L121" s="12"/>
       <c r="M121" s="12">
         <f>INDEX([1]挂机派遣章节!$H$4:$H$33,挂机派遣!BA121)</f>
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="N121" s="13"/>
       <c r="O121" s="12"/>
@@ -34098,14 +34086,14 @@
     <row r="122" spans="1:56" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A122" s="12">
         <f t="shared" si="2"/>
-        <v>33003</v>
+        <v>3</v>
       </c>
       <c r="B122" s="12">
         <v>119</v>
       </c>
       <c r="C122" s="12">
         <f>INDEX([1]挂机派遣章节!$B$4:$B$33,挂机派遣!BA122)</f>
-        <v>330</v>
+        <v>0</v>
       </c>
       <c r="D122" s="12" t="s">
         <v>300</v>
@@ -34133,7 +34121,7 @@
       <c r="L122" s="12"/>
       <c r="M122" s="12">
         <f>INDEX([1]挂机派遣章节!$H$4:$H$33,挂机派遣!BA122)</f>
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="N122" s="13"/>
       <c r="O122" s="12"/>
@@ -34192,14 +34180,14 @@
     <row r="123" spans="1:56" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A123" s="12">
         <f t="shared" si="2"/>
-        <v>33004</v>
+        <v>4</v>
       </c>
       <c r="B123" s="12">
         <v>120</v>
       </c>
       <c r="C123" s="12">
         <f>INDEX([1]挂机派遣章节!$B$4:$B$33,挂机派遣!BA123)</f>
-        <v>330</v>
+        <v>0</v>
       </c>
       <c r="D123" s="12" t="s">
         <v>300</v>
@@ -34227,7 +34215,7 @@
       <c r="L123" s="12"/>
       <c r="M123" s="12">
         <f>INDEX([1]挂机派遣章节!$H$4:$H$33,挂机派遣!BA123)</f>
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="N123" s="13"/>
       <c r="O123" s="12"/>
@@ -61446,7 +61434,7 @@
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
